--- a/fastqFiles/fastq_869.xlsx
+++ b/fastqFiles/fastq_869.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A181635-206F-EF40-9229-2D2015B5D329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92600C6-0C5F-774D-B17C-464157F188C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>libraryDate</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -498,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B25 E2:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,7 +546,7 @@
         <v>869</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -563,7 +566,7 @@
         <v>869</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -583,7 +586,7 @@
         <v>869</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -603,7 +606,7 @@
         <v>869</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -623,7 +626,7 @@
         <v>869</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -643,7 +646,7 @@
         <v>869</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -663,7 +666,7 @@
         <v>869</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -683,7 +686,7 @@
         <v>869</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -703,7 +706,7 @@
         <v>869</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -723,7 +726,7 @@
         <v>869</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -743,7 +746,7 @@
         <v>869</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -763,7 +766,7 @@
         <v>869</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -783,7 +786,7 @@
         <v>869</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -803,7 +806,7 @@
         <v>869</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -823,7 +826,7 @@
         <v>869</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -843,7 +846,7 @@
         <v>869</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -863,7 +866,7 @@
         <v>869</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -883,7 +886,7 @@
         <v>869</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -903,7 +906,7 @@
         <v>869</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -923,7 +926,7 @@
         <v>869</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -943,7 +946,7 @@
         <v>869</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -963,7 +966,7 @@
         <v>869</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -983,7 +986,7 @@
         <v>869</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -1003,7 +1006,7 @@
         <v>869</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>

--- a/fastqFiles/fastq_869.xlsx
+++ b/fastqFiles/fastq_869.xlsx
@@ -49,34 +49,34 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_TGAGGTT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_GCTTAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_ATGACAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_CACCTCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_ATCGAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_TACTCTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_AGACTGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_CTTGGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_CCGATTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_869_samples/run_869_s_5_withindex_sequence_GGCAGCG.fastq.gz</t>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_TGAGGTT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_GCTTAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_ATGACAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_ATCGAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_TACTCTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_AGACTGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_CTTGGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_CCGATTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_869_s_5_withindex_sequence_GGCAGCG.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">run_869_s_5_withindex_sequence_CCATCAT.fastq.gz</t>
@@ -236,8 +236,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_869.xlsx
+++ b/fastqFiles/fastq_869.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
